--- a/ALLFEST1.xlsx
+++ b/ALLFEST1.xlsx
@@ -28,25 +28,25 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20122092</t>
+  </si>
+  <si>
+    <t>MRJAN SYRP LEMON 460</t>
+  </si>
+  <si>
+    <t>20070380</t>
+  </si>
+  <si>
+    <t>KURMA DATE CROWN PCS</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20122092</t>
-  </si>
-  <si>
-    <t>MRJAN SYRP LEMON 460</t>
-  </si>
-  <si>
-    <t>20070380</t>
-  </si>
-  <si>
-    <t>KURMA DATE CROWN PCS</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>PT,(E-2H)</t>
